--- a/data/trans_dic/POLIPATOLOGÍA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,24%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>79,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>66,8%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,19; 34,53</t>
+          <t>19,91; 27,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,96; 60,84</t>
+          <t>20,44; 30,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,66; 33,49</t>
+          <t>21,14; 28,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,59; 20,14</t>
+          <t>40,52; 61,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,12; 43,85</t>
+          <t>27,02; 34,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,95; 83,51</t>
+          <t>37,59; 46,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,15; 47,08</t>
+          <t>32,72; 40,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 25,72</t>
+          <t>71,04; 85,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,08; 38,18</t>
+          <t>25,28; 30,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59,1; 71,68</t>
+          <t>32,2; 38,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,42; 40,76</t>
+          <t>28,84; 34,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,8; 22,74</t>
+          <t>60,71; 73,08</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>42,08%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,85; 16,19</t>
+          <t>17,05; 20,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,89; 35,51</t>
+          <t>5,17; 11,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 12,13</t>
+          <t>10,09; 13,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,47; 18,09</t>
+          <t>28,91; 35,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,65; 18,36</t>
+          <t>18,78; 22,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,97; 55,2</t>
+          <t>11,37; 50,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 32,31</t>
+          <t>12,33; 15,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 19,63</t>
+          <t>47,94; 55,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,19; 16,72</t>
+          <t>18,17; 20,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,62; 44,51</t>
+          <t>9,63; 37,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,29; 22,83</t>
+          <t>11,64; 13,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,55; 18,54</t>
+          <t>39,53; 44,7</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>28,36%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,09%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,64%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>12,77%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>40,11%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,14%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>11,14%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>34,92%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>10,66%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>10,92%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,9</t>
+          <t>9,39; 14,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,5; 32,69</t>
+          <t>7,1; 12,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 11,26</t>
+          <t>4,9; 8,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,69; 12,95</t>
+          <t>24,91; 32,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,93</t>
+          <t>10,56; 14,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,03; 44,16</t>
+          <t>10,21; 15,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 14,45</t>
+          <t>5,93; 10,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 13,16</t>
+          <t>36,08; 44,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 10,19</t>
+          <t>10,59; 13,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32,25; 37,96</t>
+          <t>9,35; 13,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 12,24</t>
+          <t>5,73; 8,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,68; 12,26</t>
+          <t>31,89; 38,02</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>51,77%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>43,32%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,73; 17,53</t>
+          <t>16,53; 19,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,83; 36,47</t>
+          <t>7,27; 12,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,33; 14,57</t>
+          <t>10,98; 13,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 16,72</t>
+          <t>31,14; 36,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,38; 21,33</t>
+          <t>18,75; 21,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,68; 54,45</t>
+          <t>17,36; 46,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,22; 29,86</t>
+          <t>15,11; 17,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,49; 18,63</t>
+          <t>49,15; 54,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,04; 19,09</t>
+          <t>18,05; 19,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,29; 45,23</t>
+          <t>13,61; 34,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,43; 23,72</t>
+          <t>13,5; 15,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,94; 17,4</t>
+          <t>41,41; 45,25</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Polipatología</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21165</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>57750</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>53471</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>50789</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>38913</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>163484</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>100487</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>95511</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>60078</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>221234</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>153959</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>146299</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17486; 24591</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46658; 69806</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>45623; 61841</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39935; 60983</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>34493; 43810</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>148923; 182405</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>89555; 111192</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>85578; 103160</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54485; 65788</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>201067; 241447</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>141170; 169939</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>132955; 160060</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>84111</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>122838</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>100155</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>115114</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>87989</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>347725</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>122535</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>184451</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>172100</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>470563</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>222690</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>299565</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>77052; 92099</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>72846; 158110</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>87016; 113634</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>103278; 127751</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>81047; 95888</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>157584; 697183</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>107315; 138075</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>170001; 196913</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>160552; 182011</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>268997; 1046871</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>201654; 242368</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>281408; 318193</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17520</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42765</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24544</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>63707</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24244</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>56606</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32630</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>113574</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>41764</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>99371</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>57174</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>177281</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14176; 21272</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32644; 55329</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18553; 32978</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>55954; 72722</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20553; 28886</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>45271; 67530</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24600; 42195</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>102158; 126037</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36605; 47488</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>84446; 117973</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>45453; 69001</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>161941; 193044</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1564</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1523</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>122796</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>223354</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>178170</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>229610</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>151146</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>567815</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>255653</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>393536</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>273942</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>791168</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>433823</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>623146</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>114190; 132575</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>152377; 264085</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>159985; 195872</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>211862; 250128</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>141386; 160875</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>386260; 1037205</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>235547; 277087</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>372643; 412674</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>260737; 288647</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>588059; 1505083</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>406951; 460663</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>595741; 651023</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/POLIPATOLOGÍA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología</t>
+          <t>Polipatología (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1262,7 +1262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología</t>
+          <t>Polipatología (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/POLIPATOLOGÍA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Estudios-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,91; 27,99</t>
+          <t>19,3; 26,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,44; 30,58</t>
+          <t>20,29; 30,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,52; 61,88</t>
+          <t>39,98; 62,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,02; 34,32</t>
+          <t>27,61; 34,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,59; 46,04</t>
+          <t>37,52; 45,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,04; 85,64</t>
+          <t>71,38; 85,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,28; 30,53</t>
+          <t>25,13; 30,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,2; 38,66</t>
+          <t>32,31; 38,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,71; 73,08</t>
+          <t>59,95; 72,66</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,05; 20,38</t>
+          <t>15,28; 18,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 11,22</t>
+          <t>4,96; 11,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,91; 35,76</t>
+          <t>28,71; 35,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,78; 22,21</t>
+          <t>17,84; 21,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,37; 50,31</t>
+          <t>11,47; 54,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,94; 55,53</t>
+          <t>48,21; 55,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,17; 20,6</t>
+          <t>16,98; 19,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 37,46</t>
+          <t>9,44; 38,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,53; 44,7</t>
+          <t>39,66; 44,82</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,39; 14,09</t>
+          <t>8,34; 12,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,03</t>
+          <t>7,17; 12,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,91; 32,38</t>
+          <t>24,73; 32,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,84</t>
+          <t>9,52; 13,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,21; 15,23</t>
+          <t>10,67; 15,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,08; 44,52</t>
+          <t>35,82; 43,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,59; 13,74</t>
+          <t>9,73; 12,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,06</t>
+          <t>9,42; 12,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,89; 38,02</t>
+          <t>32,22; 37,84</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 19,19</t>
+          <t>14,64; 17,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,59</t>
+          <t>7,2; 12,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,14; 36,76</t>
+          <t>31,08; 36,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,75; 21,34</t>
+          <t>17,64; 20,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 46,61</t>
+          <t>17,45; 46,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,15; 54,43</t>
+          <t>49,17; 54,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,05; 19,98</t>
+          <t>16,62; 18,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,61; 34,82</t>
+          <t>13,62; 33,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>41,41; 45,25</t>
+          <t>41,39; 45,31</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21165</t>
+          <t>18898</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38913</t>
+          <t>37551</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>60078</t>
+          <t>56449</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1520,12 +1520,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17486; 24591</t>
+          <t>15864; 21912</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46658; 69806</t>
+          <t>46313; 68604</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39935; 60983</t>
+          <t>39400; 62012</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34493; 43810</t>
+          <t>33516; 42118</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>148923; 182405</t>
+          <t>148654; 179975</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>85578; 103160</t>
+          <t>85983; 102882</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>54485; 65788</t>
+          <t>51164; 61770</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>201067; 241447</t>
+          <t>201782; 242737</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>132955; 160060</t>
+          <t>131292; 159142</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>84111</t>
+          <t>76973</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87989</t>
+          <t>86067</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>172100</t>
+          <t>163040</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77052; 92099</t>
+          <t>70415; 83974</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72846; 158110</t>
+          <t>69816; 156292</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>103278; 127751</t>
+          <t>102581; 128113</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81047; 95888</t>
+          <t>79389; 93543</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>157584; 697183</t>
+          <t>158896; 762088</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1763,17 +1763,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>170001; 196913</t>
+          <t>170964; 198112</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>160552; 182011</t>
+          <t>153836; 173164</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>268997; 1046871</t>
+          <t>263862; 1063373</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>281408; 318193</t>
+          <t>282344; 319031</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17520</t>
+          <t>18079</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24244</t>
+          <t>26480</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41764</t>
+          <t>44559</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14176; 21272</t>
+          <t>14621; 21831</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>32644; 55329</t>
+          <t>32947; 55434</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>55954; 72722</t>
+          <t>55548; 73193</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20553; 28886</t>
+          <t>21766; 30441</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45271; 67530</t>
+          <t>47287; 69632</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>102158; 126037</t>
+          <t>101425; 123951</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>36605; 47488</t>
+          <t>39312; 50321</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>84446; 117973</t>
+          <t>85053; 116080</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>161941; 193044</t>
+          <t>163576; 192105</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>122796</t>
+          <t>113950</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>151146</t>
+          <t>150098</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>273942</t>
+          <t>264047</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>114190; 132575</t>
+          <t>105194; 122520</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>152377; 264085</t>
+          <t>150955; 264112</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,17 +2159,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>211862; 250128</t>
+          <t>211483; 250013</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>141386; 160875</t>
+          <t>140218; 160214</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>386260; 1037205</t>
+          <t>388425; 1035310</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2179,17 +2179,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>372643; 412674</t>
+          <t>372813; 414259</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>260737; 288647</t>
+          <t>251501; 276611</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>588059; 1505083</t>
+          <t>588829; 1452443</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>595741; 651023</t>
+          <t>595493; 651844</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/POLIPATOLOGÍA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Estudios-trans_dic.xlsx
@@ -569,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -657,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>24,8%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51,53%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24,78%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>22,99%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>25,3%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>24,78%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>51,53%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>40,37%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>79,29%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36,72%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>30,93%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>41,26%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>36,72%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>79,29%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>34,6%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66,8%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31,45%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>27,72%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>35,43%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>31,45%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>66,8%</t>
         </is>
       </c>
     </row>
@@ -725,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>19,94; 29,21</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39,98; 62,92</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21,14; 28,66</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>19,3; 26,65</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>20,29; 30,05</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>21,14; 28,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>39,98; 62,92</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>36,9; 44,24</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>71,38; 85,41</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32,72; 40,63</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>27,61; 34,7</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>37,52; 45,43</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>32,72; 40,63</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>71,38; 85,41</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>31,7; 37,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>59,95; 72,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28,84; 34,72</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>25,13; 30,34</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>32,31; 38,87</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>28,84; 34,72</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>59,95; 72,66</t>
         </is>
       </c>
     </row>
@@ -797,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>10,49%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32,22%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>16,7%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,72%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>32,22%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>12,59%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>52,02%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>19,34%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>25,09%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>14,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>52,02%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,08%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>18,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>16,84%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>12,86%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>42,08%</t>
         </is>
       </c>
     </row>
@@ -865,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>8,97; 12,34</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>28,71; 35,86</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10,09; 13,18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>15,28; 18,22</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,96; 11,09</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>10,09; 13,18</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>28,71; 35,86</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>11,1; 14,15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>48,21; 55,87</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12,33; 15,87</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>17,84; 21,02</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>11,47; 54,99</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>12,33; 15,87</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>48,21; 55,87</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>10,49; 12,8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39,66; 44,82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,64; 13,99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>16,98; 19,12</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>9,44; 38,05</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>11,64; 13,99</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>39,66; 44,82</t>
         </is>
       </c>
     </row>
@@ -937,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>28,36%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>10,31%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,3%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>28,36%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>13,18%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40,11%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>11,59%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,77%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,87%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>40,11%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34,92%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>11,03%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>11,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,2%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>34,92%</t>
         </is>
       </c>
     </row>
@@ -1005,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6,98; 11,72</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24,73; 32,59</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 8,7</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>8,34; 12,45</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,17; 12,06</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,9; 8,7</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>24,73; 32,59</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>10,92; 16,08</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>35,82; 43,78</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5,93; 10,17</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>9,52; 13,32</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>10,67; 15,71</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 10,17</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>35,82; 43,78</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>9,51; 13,07</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32,22; 37,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 8,69</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>9,73; 12,46</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>9,42; 12,85</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5,73; 8,69</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>32,22; 37,84</t>
         </is>
       </c>
     </row>
@@ -1077,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>11,92%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33,74%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12,23%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>15,86%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,65%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>12,23%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>33,74%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>18,2%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>51,91%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,4%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>18,88%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>25,52%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>16,4%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>51,91%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>15,17%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43,32%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>17,45%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>18,3%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>14,39%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>43,32%</t>
         </is>
       </c>
     </row>
@@ -1145,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>10,7; 13,26</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31,08; 36,74</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10,98; 13,44</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>14,64; 17,05</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 12,6</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>10,98; 13,44</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>31,08; 36,74</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>16,87; 19,58</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>49,17; 54,64</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15,11; 17,78</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>17,64; 20,16</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>17,45; 46,52</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>15,11; 17,78</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>49,17; 54,64</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>14,25; 16,15</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>41,39; 45,31</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 15,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>16,62; 18,28</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>13,62; 33,6</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>13,5; 15,28</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>41,39; 45,31</t>
         </is>
       </c>
     </row>
@@ -1296,62 +1296,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -1384,62 +1384,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>228</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>352</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>434</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>343</t>
         </is>
       </c>
     </row>
@@ -1452,62 +1452,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>63345</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>50789</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>53471</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>18898</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>57750</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>53471</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>50789</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>175120</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>95511</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>100487</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>37551</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>163484</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>100487</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>95511</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>238465</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>146299</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>153959</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>56449</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>221234</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>153959</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>146299</t>
         </is>
       </c>
     </row>
@@ -1520,62 +1520,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>50931; 74608</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>39400; 62012</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>45623; 61841</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>15864; 21912</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>46313; 68604</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>45623; 61841</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>39400; 62012</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>160055; 191908</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>85983; 102882</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>89555; 111192</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>33516; 42118</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>148654; 179975</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>89555; 111192</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>85983; 102882</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>218450; 259316</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>131292; 159142</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>141170; 169939</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>51164; 61770</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>201782; 242737</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>141170; 169939</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>131292; 159142</t>
         </is>
       </c>
     </row>
@@ -1592,62 +1592,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>462</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>265</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>502</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>421</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>964</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>405</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>508</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>686</t>
         </is>
       </c>
     </row>
@@ -1660,62 +1660,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>135007</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>115114</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>100155</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>76973</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>122838</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>100155</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>115114</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>160003</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>184451</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>122535</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>86067</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>347725</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>122535</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>184451</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>295009</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>299565</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>222690</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>163040</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>470563</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>222690</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>299565</t>
         </is>
       </c>
     </row>
@@ -1728,62 +1728,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>115402; 158799</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>102581; 128113</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>87016; 113634</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>70415; 83974</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>69816; 156292</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>87016; 113634</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>102581; 128113</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>141031; 179825</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>170964; 198112</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>107315; 138075</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>79389; 93543</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>158896; 762088</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>107315; 138075</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>170964; 198112</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>268192; 327266</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>282344; 319031</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>201654; 242368</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>153836; 173164</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>263862; 1063373</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>201654; 242368</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>282344; 319031</t>
         </is>
       </c>
     </row>
@@ -1800,62 +1800,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>102</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>146</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>248</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>494</t>
         </is>
       </c>
     </row>
@@ -1868,62 +1868,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>46337</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63707</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24544</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>18079</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>42765</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>24544</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>63707</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>65379</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>113574</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32630</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>26480</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>56606</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>32630</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>113574</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>111717</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>177281</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>57174</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>44559</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>99371</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>57174</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>177281</t>
         </is>
       </c>
     </row>
@@ -1936,62 +1936,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>35614; 59737</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>55548; 73193</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18553; 32978</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>14621; 21831</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>32947; 55434</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>18553; 32978</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>55548; 73193</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>54158; 79744</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>101425; 123951</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24600; 42195</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>21766; 30441</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>47287; 69632</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>24600; 42195</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>101425; 123951</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>95677; 131449</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>163576; 192105</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>45453; 69001</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>39312; 50321</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>85053; 116080</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>45453; 69001</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>163576; 192105</t>
         </is>
       </c>
     </row>
@@ -2008,62 +2008,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>688</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>474</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>562</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>876</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>646</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>961</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1523</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>1564</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>1058</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>1523</t>
         </is>
       </c>
     </row>
@@ -2076,62 +2076,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>244689</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>229610</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>178170</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>113950</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>223354</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>178170</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>229610</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>400502</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>393536</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>255653</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>150098</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>567815</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>255653</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>393536</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>645191</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>623146</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>433823</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>264047</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>791168</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>433823</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>623146</t>
         </is>
       </c>
     </row>
@@ -2144,62 +2144,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>219654; 272080</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>211483; 250013</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>159985; 195872</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>105194; 122520</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>150955; 264112</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>159985; 195872</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>211483; 250013</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>371209; 430756</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>372813; 414259</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>235547; 277087</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>140218; 160214</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>388425; 1035310</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>235547; 277087</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>372813; 414259</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>606091; 686801</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>595493; 651844</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>406951; 460663</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>251501; 276611</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>588829; 1452443</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>406951; 460663</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>595493; 651844</t>
         </is>
       </c>
     </row>
